--- a/biology/Médecine/Réserpine/Réserpine.xlsx
+++ b/biology/Médecine/Réserpine/Réserpine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9serpine</t>
+          <t>Réserpine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La réserpine est un alcaloïde qui a été découvert dans le rhizome et la racine de Rauwolfia serpentina (Apocynacées).
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9serpine</t>
+          <t>Réserpine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La réserpine a été isolée en 1952 à partir de la racine séchée de Rauwolfia serpentina, et mise sur le marché en 1954, deux ans après le chlorpromazine. La réserpine n'a plus été utilisée durant quelques années en raison de ses effets secondaires et interactions, avant d'être à nouveau utilisée dans certains pays comme médicament, ou en combinaison avec d'autres molécules contre l'hypertension, généralement avec un diurétique et/ou un vasodilatateur tel que l'hydralazine.
 Son usage comme antipsychotique est presque abandonné. À l'origine, des doses de 0,5 mg à 40 mg par jour ont été données à des malades psychotiques. Au-dessus de 3 mg/jour, un anticholinergique devait être associé pour combattre l'activité cholinergique excessive de la réserpine dans certains organes, ainsi que des syndromes parkinsoniens.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9serpine</t>
+          <t>Réserpine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les effets secondaires de la réserpine sont nombreux, incluant congestion nasale, nausées, vomissements, prise de poids, intolérance gastrique, ulcères gastriques (induits par l'activité cholinergique accrue du tissu gastrique et l'altération de la muqueuse), crampes d'estomac et diarrhées.
 La réserpine est aussi source d'hypotension et de bradycardie et elle peut aggraver l'asthme.
